--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1899466.812836188</v>
+        <v>-1902043.13431743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>172.5821082655291</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>97.91652990141418</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.63422406962647</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>47.59560987483869</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>5.40030489265368</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>109.6870817625072</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>140.5401046134635</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>88.01862963320963</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>128.8771852996427</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>129.1643093334208</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1345,10 +1345,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8645835501905</v>
+        <v>135.9173583898535</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>72.2655838169983</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>164.0001714587657</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.9527903262011</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>249.670018837575</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>61.16269384155267</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.2301075198435</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>159.3654058540556</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.24570521548653</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652607</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.953318337195</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C2" t="n">
-        <v>1206.953318337195</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.953318337195</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3040.989791251894</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3040.989791251894</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2709.926903908323</v>
+        <v>3116.409567377262</v>
       </c>
       <c r="W2" t="n">
-        <v>2357.158248638209</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X2" t="n">
-        <v>1983.692490377129</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y2" t="n">
-        <v>1593.553158401317</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331.5406302391191</v>
+        <v>429.181274166323</v>
       </c>
       <c r="C4" t="n">
-        <v>331.5406302391191</v>
+        <v>429.181274166323</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>471.3317757503526</v>
+        <v>493.2055226857894</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7642570495505</v>
+        <v>660.6380039849872</v>
       </c>
       <c r="N4" t="n">
-        <v>810.0730940793979</v>
+        <v>831.9468410148347</v>
       </c>
       <c r="O4" t="n">
-        <v>947.9914432975877</v>
+        <v>1020.776122302458</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.037596261248</v>
+        <v>1119.727125055216</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413763</v>
+        <v>1132.647892413757</v>
       </c>
       <c r="R4" t="n">
-        <v>1042.817435171291</v>
+        <v>1132.647892413757</v>
       </c>
       <c r="S4" t="n">
-        <v>851.1315509981176</v>
+        <v>1132.647892413757</v>
       </c>
       <c r="T4" t="n">
-        <v>629.3649355676437</v>
+        <v>1132.647892413757</v>
       </c>
       <c r="U4" t="n">
-        <v>340.2620686932872</v>
+        <v>1132.647892413757</v>
       </c>
       <c r="V4" t="n">
-        <v>340.2620686932872</v>
+        <v>877.9634042078704</v>
       </c>
       <c r="W4" t="n">
-        <v>340.2620686932872</v>
+        <v>877.9634042078704</v>
       </c>
       <c r="X4" t="n">
-        <v>340.2620686932872</v>
+        <v>649.9738533098531</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.2620686932872</v>
+        <v>429.181274166323</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.584018541385</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
         <v>1232.584018541385</v>
@@ -4565,10 +4565,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3320.150968182247</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3066.620491456084</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2735.557604112513</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.788948842398</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2009.323190581319</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1619.183858605507</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.3382468580007</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>505.4784049721907</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>355.3617655598549</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>355.3617655598549</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>208.4718180619446</v>
       </c>
       <c r="G7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1556.870499972635</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1302.186011766748</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W7" t="n">
-        <v>1012.768841729788</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X7" t="n">
-        <v>784.7792908317705</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.9867116882403</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>654.0504646744059</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.088959374998</v>
+        <v>1568.237671658167</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.404471169111</v>
+        <v>1568.237671658167</v>
       </c>
       <c r="W10" t="n">
-        <v>1003.987301132151</v>
+        <v>1278.820501621206</v>
       </c>
       <c r="X10" t="n">
-        <v>775.9977502341333</v>
+        <v>1050.830950723189</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.9977502341333</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5130,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.580456911441</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983534</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711983</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888052</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026076</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820189</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783228</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.021500885211</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741681</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,16 +5291,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>915.1035305473689</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C16" t="n">
-        <v>915.1035305473689</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>764.9868911350331</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487566</v>
+        <v>2227.361618603205</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831764</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625877</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588916</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690899</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473689</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5756,7 +5756,7 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>783.5579673960132</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,16 +6069,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,58 +6686,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,13 +7354,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>94.56320294380271</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717214</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7786,40 +7786,40 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973197</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8134,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8149,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>51.42518390851853</v>
       </c>
       <c r="P4" t="n">
-        <v>8.176919404951562</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-7.280171930366088e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.33586187409108</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.8357285687207</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.1977561123108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>101.0198631433737</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272861</v>
       </c>
       <c r="U13" t="n">
-        <v>213.9188905722459</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>54.58448189332907</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>14.4811723203681</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>36.51445555166916</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823102</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>85.2712688050165</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.60187266209377</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>59.21924749803918</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="F2" t="n">
         <v>100893.3249612508</v>
@@ -26332,10 +26332,10 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26344,7 +26344,7 @@
         <v>102630.2212330356</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3287.48594155332</v>
+        <v>3287.485941553246</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184271</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184276</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184271</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="K4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493619</v>
+        <v>21597.66737493628</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="N4" t="n">
         <v>21597.6673749362</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1357076.998055163</v>
+        <v>-1357471.818996316</v>
       </c>
       <c r="C6" t="n">
-        <v>-98097.56221155199</v>
+        <v>-98097.56221155195</v>
       </c>
       <c r="D6" t="n">
-        <v>-98097.56221155192</v>
+        <v>-98097.56221155191</v>
       </c>
       <c r="E6" t="n">
-        <v>-339248.4747818541</v>
+        <v>-339283.2127072903</v>
       </c>
       <c r="F6" t="n">
-        <v>-13836.01297449904</v>
+        <v>-13870.75089993479</v>
       </c>
       <c r="G6" t="n">
-        <v>-13836.01297449907</v>
+        <v>-13870.75089993475</v>
       </c>
       <c r="H6" t="n">
-        <v>-13836.01297449906</v>
+        <v>-13870.75089993481</v>
       </c>
       <c r="I6" t="n">
-        <v>-13836.0129744991</v>
+        <v>-13870.75089993478</v>
       </c>
       <c r="J6" t="n">
-        <v>-231367.2153717767</v>
+        <v>-231401.9532972123</v>
       </c>
       <c r="K6" t="n">
-        <v>-41559.27998944779</v>
+        <v>-41559.27998944776</v>
       </c>
       <c r="L6" t="n">
-        <v>-22131.561995816</v>
+        <v>-22131.56199581605</v>
       </c>
       <c r="M6" t="n">
-        <v>-107186.5899313278</v>
+        <v>-107186.5899313281</v>
       </c>
       <c r="N6" t="n">
+        <v>-22131.56199581618</v>
+      </c>
+      <c r="O6" t="n">
         <v>-22131.56199581616</v>
       </c>
-      <c r="O6" t="n">
-        <v>-22131.56199581617</v>
-      </c>
       <c r="P6" t="n">
-        <v>-41559.2799894479</v>
+        <v>-41559.27998944798</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26793,16 +26793,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>198.5176652469665</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>218.0651767076277</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>25.48570364556468</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>198.1932085724033</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>236.3957064713649</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>277.7117364082906</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.3472546554224</v>
+        <v>150.2944798157593</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32722,10 +32722,10 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>289.7537444526271</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>514.6953762540926</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028594</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
@@ -34869,13 +34869,13 @@
         <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>190.7366477652758</v>
       </c>
       <c r="P4" t="n">
-        <v>108.1274272360209</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060485</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,10 +36124,10 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>151.9123054782681</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>372.0991318096482</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
